--- a/doc/UnitTestDocumentation.xlsx
+++ b/doc/UnitTestDocumentation.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Comments" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -830,9 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,6 +843,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1236,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1462,24 +1463,24 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
@@ -1498,7 +1499,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1556,154 +1557,154 @@
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="B84" s="7"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1773,32 +1774,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1860,17 +1861,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1900,149 +1901,149 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="23">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2058,29 +2059,29 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="23">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2119,23 +2120,23 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="23">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2173,35 +2174,35 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="23">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2310,34 +2311,34 @@
       <c r="D46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="23">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2353,33 +2354,33 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="23">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2405,32 +2406,32 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="23">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
@@ -2451,18 +2452,17 @@
       <c r="F58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A56:F56"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A56:F56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
